--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655"/>
   </bookViews>
   <sheets>
-    <sheet name="2016-1-8" sheetId="3" r:id="rId1"/>
+    <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -43,34 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6021:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-      1.代码精简和逻辑优化
-      2.单表校验、整表下载测试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,12 +448,52 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1.代码精简和逻辑优化
+      2.单表校验、整表下载测试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +591,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1050,7 +1071,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,55 +1089,55 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12">
-        <v>42377.653437499997</v>
+        <v>42373.653437499997</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1128,7 +1149,7 @@
     </row>
     <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1152,7 +1173,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1164,7 +1185,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1176,7 +1197,7 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -14,34 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR505:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      1.获取H.264网络视频串流
-          (win32 api或Vlclib api)
-      2.校时:win32下SNTP客户端实现</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +140,205 @@
   </si>
   <si>
     <r>
+      <t>1.GR6017高斯、余弦功能整合：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">未测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.30个英语单词
+3.表格整改</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR506:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.获取H.264网络视频串流
+          (win32 api或Vlclib api)
+      2.校时:win32下SNTP客户端实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR505:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.上位机软件设计
+      2.当前项目进度的跟踪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.32个英语单词
+2.GR505项目需求整理
+3.GR6021项目归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1.代码精简和逻辑优化
+      2.单表校验、整表下载测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.项目归档</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>英语：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单词复习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阅读：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《计算机网络——自顶向下》第二章 应用层</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -364,127 +536,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阅读：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《计算机网络——自顶向下》第二章 应用层</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英语：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单词复习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.GR6017高斯、余弦功能整合：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">未测试
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.30个英语单词
-3.表格整改</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6021:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      1.代码精简和逻辑优化
-      2.单表校验、整表下载测试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,15 +639,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +647,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,12 +689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,20 +731,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,57 +1142,59 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="12">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>8</v>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1149,7 +1206,7 @@
     </row>
     <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1161,7 +1218,7 @@
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1171,8 +1228,8 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
@@ -1184,8 +1241,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
+      <c r="A7" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1195,13 +1252,25 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
+    <sheet name="2016-1-11" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +537,332 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加COS2 信号的Matlab dll调用    
+      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.32位程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到天奥联调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合高斯、余弦功能；衰减控制联调
+      8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上位机增加烧写功能；ARM增加烧写FLASH功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1.代码精简和逻辑优化
+      2.单表校验、整表下载测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目归档</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读：《计算机网络——自顶向下》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.35个英语单词
+2.《计算机网络自顶向下》 Http msg format
+3.高斯、COS2功能整合
+4.定位高斯曲线变形的原因：修正系数K的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（最终确认是点数和修正系数个数的共同影响，当点数超过700时，40个修正系数点将不能对称修正曲线，所以导致最后拟合的曲线变形）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,6 +1073,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1277,4 +1616,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="11">
+        <v>42373.653437499997</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,94 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6021:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      1.代码精简和逻辑优化
-      2.单表校验、整表下载测试
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>项目归档</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读：《计算机网络——自顶向下》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +775,121 @@
         <scheme val="minor"/>
       </rPr>
       <t>（最终确认是点数和修正系数个数的共同影响，当点数超过700时，40个修正系数点将不能对称修正曲线，所以导致最后拟合的曲线变形）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GR6407: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.大小端及网络字节序
+      2.有符号数和无符号及其移位操作
+      3.万兆光纤：UDP丢包
+      4.联调:测试数据接收、波形显示
+      5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合ARM、FPGA解决上传Q数据不正确的问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1.代码精简和逻辑优化
+      2.单表校验、整表下载测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目归档</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,7 +1650,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,10 +1694,10 @@
     </row>
     <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1679,9 +1706,9 @@
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1729,7 +1756,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,6 +891,12 @@
       </rPr>
       <t>项目归档</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.49个英语单词
+2.修改高斯系数为70：CVI上位机和VC++中间层的改变
+3.GR6017添加文件保存和文件下载功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1650,14 +1656,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
@@ -1699,7 +1705,9 @@
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" s="18"/>
       <c r="E2" s="3"/>
       <c r="F2" s="8"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,12 +899,44 @@
 3.GR6017添加文件保存和文件下载功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1058,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1065,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1119,6 +1166,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1656,12 +1710,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
@@ -1672,30 +1726,30 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="11">
-        <v>42373.653437499997</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,220 +525,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>整合高斯、余弦功能；衰减控制联调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6017:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>添加COS2 信号的Matlab dll调用    
-      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      4</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.32位程序的实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到天奥联调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      6.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>整合高斯、余弦功能；衰减控制联调
-      8.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上位机增加烧写功能；ARM增加烧写FLASH功能</t>
     </r>
     <r>
       <rPr>
@@ -929,6 +715,237 @@
   </si>
   <si>
     <t>Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加COS2 信号的Matlab dll调用    
+      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.32位程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到天奥联调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合高斯、余弦功能；衰减控制联调
+      8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上位机增加烧写功能；ARM增加烧写FLASH功能
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.熟悉STM32 FLASH写操作：如何对一个扇区多次操作，但不丢失以前的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GR6017上位机衰减控制逻辑
+2.GR6017 ARM Flash 读写；衰减发送
+3.解决Jlink Or STLink 仿真器连接失败的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1727,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1728,41 +1745,43 @@
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1770,7 +1789,7 @@
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1780,9 +1799,9 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1818,7 +1837,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -945,7 +945,8 @@
   <si>
     <t>1.GR6017上位机衰减控制逻辑
 2.GR6017 ARM Flash 读写；衰减发送
-3.解决Jlink Or STLink 仿真器连接失败的问题</t>
+3.解决Jlink Or STLink 仿真器连接失败的问题
+4.58个英语单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,7 +1728,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,34 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -904,7 +876,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>整合高斯、余弦功能；衰减控制联调
-      8.</t>
+      8.上位机增加烧写功能；ARM增加烧写FLASH功能</t>
     </r>
     <r>
       <rPr>
@@ -915,7 +887,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">上位机增加烧写功能；ARM增加烧写FLASH功能
+      <t xml:space="preserve">
      </t>
     </r>
     <r>
@@ -943,10 +915,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.GR6017上位机衰减控制逻辑
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.GR6017上位机衰减控制逻辑
 2.GR6017 ARM Flash 读写；衰减发送
 3.解决Jlink Or STLink 仿真器连接失败的问题
-4.58个英语单词</t>
+4.58个英语单词
+5.《计算机网络自顶向下》 Cookies（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初步阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.79个英语单词：复习49，新增30
+2.天奥联调：
+    测试GR6017上位机及下位机新增的FLASH固化功能；
+    以及上位机的文件保存和下载功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1725,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1736,7 +1744,7 @@
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
@@ -1744,33 +1752,34 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1781,14 +1790,15 @@
         <v>24</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1800,9 +1810,9 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1812,7 +1822,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1834,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1836,7 +1846,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -1848,7 +1858,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1860,12 +1870,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
     </row>
   </sheetData>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,6 +955,11 @@
 2.天奥联调：
     测试GR6017上位机及下位机新增的FLASH固化功能；
     以及上位机的文件保存和下载功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.80个单词：复习45，新增35
+2.《计算机网络自顶向下》 FTP &amp; SMTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,7 +1741,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1746,7 +1751,7 @@
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1795,6 +1800,9 @@
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,59 @@
   <si>
     <t>1.80个单词：复习45，新增35
 2.《计算机网络自顶向下》 FTP &amp; SMTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《F2812学习笔记》1~7页
+2.80个单词：50复习，32新增
+3.DSP 入门学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6409:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.熟悉DSP开发流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.了解项目需求：需要调试的接口</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,6 +1257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1740,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1752,7 +1808,7 @@
     <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1803,7 +1859,9 @@
       <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -1883,8 +1941,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
     <sheet name="2016-1-11" sheetId="4" r:id="rId2"/>
+    <sheet name="2016-1-18" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,231 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6017:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>添加COS2 信号的Matlab dll调用    
-      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      4</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.32位程序的实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到天奥联调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      6.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>整合高斯、余弦功能；衰减控制联调
-      8.上位机增加烧写功能；ARM增加烧写FLASH功能</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9.熟悉STM32 FLASH写操作：如何对一个扇区多次操作，但不丢失以前的数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,12 +791,778 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.GR6323 接口测试：网口、GTX、SDRAM、RS422、8个光口、EMIF等
+2.《手把手教你学DSP》 CCS配置、仿真器安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR505:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.上位机软件设计
+      2.当前项目进度的跟踪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>英语：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单词复习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C++: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基础语法——类和对象的申明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加COS2 信号的Matlab dll调用    
+      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.32位程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到天奥联调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合高斯、余弦功能；衰减控制联调
+      8.上位机增加烧写功能；ARM增加烧写FLASH功能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.熟悉STM32 FLASH写操作：如何对一个扇区多次操作，但不丢失以前的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GR6407: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.大小端及网络字节序
+      2.有符号数和无符号及其移位操作
+      3.万兆光纤：UDP丢包
+      4.联调:测试数据接收、波形显示
+      5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合ARM、FPGA解决上传Q数据不正确的问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1.代码精简和逻辑优化
+      2.单表校验、整表下载测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目归档</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加COS2 信号的Matlab dll调用    
+      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.32位程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到天奥联调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合高斯、余弦功能；衰减控制联调
+      8.上位机增加烧写功能；ARM增加烧写FLASH功能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.熟悉STM32 FLASH写操作：如何对一个扇区多次操作，但不丢失以前的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR506:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.获取H.264网络视频串流
+          (win32 api或Vlclib api)
+      2.校时:win32下SNTP客户端实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6409:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.熟悉DSP开发流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.了解项目需求：需要调试的接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《手把手教你学DSP》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.105个单词复习
+2.《计算机网络——自顶向下》
+3.GR6323 高低温实验台搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.34个英语单词
+2.GR6323 高低温实验
+3.《程序员的自我修养》
+4.《计算机网络——自顶向下》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GR6323 高低温实验
+2.23个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1699,88 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1196,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1260,6 +1884,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1642,7 +2308,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -1655,7 +2321,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -1681,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="81">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +2371,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +2383,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="162">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1729,7 +2395,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +2407,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +2419,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +2431,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1777,12 +2443,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -1796,11 +2462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -1813,12 +2479,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
@@ -1840,7 +2506,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1851,20 +2517,20 @@
         <v>24</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1876,9 +2542,9 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="216">
       <c r="A4" s="19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1888,7 +2554,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +2566,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +2578,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +2590,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1936,14 +2602,174 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5">
       <c r="A10" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21" style="38" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="99.75">
+      <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>32</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="228">
+      <c r="A4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="57">
+      <c r="A5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75">
+      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.75">
+      <c r="A10" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="38" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,53 +1459,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6409:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.熟悉DSP开发流程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      2.了解项目需求：需要调试的接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -1553,8 +1506,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.GR6323 高低温实验
-2.23个英语单词</t>
+    <t>1.GR6323 DSP  光口测试源码优化
+2.SDRAM 高低温不稳定问题研究
+3.34个英语单词
+4.婚宴宴请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.GR6323 高低温实验
+2.23个英语单词
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6323:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.熟悉DSP开发流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.了解项目需求：需要调试的接口</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2623,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2634,7 +2643,7 @@
     <col min="3" max="3" width="24.25" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="38" customWidth="1"/>
     <col min="5" max="5" width="21" style="38" customWidth="1"/>
-    <col min="6" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.75" style="38" customWidth="1"/>
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
@@ -2665,7 +2674,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2673,15 +2682,17 @@
         <v>32</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
     </row>
@@ -2764,12 +2775,12 @@
     </row>
     <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1563,6 +1563,30 @@
       </rPr>
       <t xml:space="preserve">
       2.了解项目需求：需要调试的接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.54个单词
+2.SDRAM 时钟、时序
+3.DSP 外部RAM设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.GR6323高低温实验：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SDRAM有一块可能存在问题</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2632,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2693,8 +2717,12 @@
       <c r="F2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
     <sheet name="2016-1-11" sheetId="4" r:id="rId2"/>
     <sheet name="2016-1-18" sheetId="6" r:id="rId3"/>
+    <sheet name="2016-1-25" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,12 +1591,23 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.看TMS320C6713 SDRAM datasheet
+2.20个单词
+3.GR6323高低温实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验证昨天推测SDRAM故障原因：21、22数据线相互拉。验证未得到理想结果，数据也看不出规律。
+2. EMIF接口：存储器的概念、地址线、数据线及控制线的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1963,7 +1975,38 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <indexedColors>
@@ -2341,7 +2384,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -2354,7 +2397,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -2380,7 +2423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2447,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2416,7 +2459,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162">
+    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2471,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2483,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2495,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -2464,7 +2507,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -2476,12 +2519,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -2499,7 +2542,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -2512,7 +2555,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -2539,7 +2582,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2563,7 +2606,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2575,7 +2618,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -2587,7 +2630,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2599,7 +2642,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2654,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2666,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2635,12 +2678,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -2656,11 +2699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -2671,7 +2714,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2741,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5">
+    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2724,7 +2767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -2736,7 +2779,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -2748,7 +2791,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2760,7 +2803,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -2772,7 +2815,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +2827,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -2796,24 +2839,185 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:H11">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21" style="38" customWidth="1"/>
+    <col min="6" max="8" width="20.75" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:H11">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1602,12 +1602,30 @@
 2. EMIF接口：存储器的概念、地址线、数据线及控制线的概念</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>公司年会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上午部门会议
+2.下午年会舞蹈彩排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续深入了解SDRAM
+2.30个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SDRAM：读写操作、片选；物理地址、虚拟地址理解；页边界监视等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,17 +1993,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2384,7 +2392,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -2397,7 +2405,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="81">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2447,7 +2455,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2459,7 +2467,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="162">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2471,7 +2479,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2483,7 +2491,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2503,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -2507,7 +2515,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -2519,12 +2527,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -2542,7 +2550,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -2555,7 +2563,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +2590,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +2614,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2626,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="216">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -2630,7 +2638,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2642,7 +2650,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2662,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2666,7 +2674,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2678,12 +2686,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2711,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -2714,7 +2722,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -2741,7 +2749,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -2779,7 +2787,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -2791,7 +2799,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2803,7 +2811,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -2815,7 +2823,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2835,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -2839,17 +2847,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -2857,7 +2865,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2869,10 +2877,10 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -2883,7 +2891,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -2910,7 +2918,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="99.75">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2920,13 +2928,21 @@
       <c r="C2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="D2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +2954,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -2950,7 +2966,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2962,7 +2978,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -2974,7 +2990,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +3002,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -2998,17 +3014,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3016,8 +3032,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
     <sheet name="2016-1-11" sheetId="4" r:id="rId2"/>
     <sheet name="2016-1-18" sheetId="6" r:id="rId3"/>
     <sheet name="2016-1-25" sheetId="7" r:id="rId4"/>
+    <sheet name="2016-2-1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1618,6 +1619,87 @@
   </si>
   <si>
     <t>1.SDRAM：读写操作、片选；物理地址、虚拟地址理解；页边界监视等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15个单词
+2.数字电路基础
+3.GR6323 高低温实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉P4080的串口，FLASH，网口等接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉VxWorks6.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1993,7 +2075,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2865,7 +2967,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2876,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3032,7 +3134,169 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21" style="38" customWidth="1"/>
+    <col min="6" max="8" width="20.75" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="99.75">
+      <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="228">
+      <c r="A4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="57">
+      <c r="A5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75">
+      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.75">
+      <c r="A10" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57">
+      <c r="A12" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:H11">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2016-1-18" sheetId="6" r:id="rId3"/>
     <sheet name="2016-1-25" sheetId="7" r:id="rId4"/>
     <sheet name="2016-2-1" sheetId="8" r:id="rId5"/>
+    <sheet name="2016-2-15" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,12 +1703,412 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR505:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.上位机软件设计
+      2.当前项目进度的跟踪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 1.《computer network a top-down》
+      2. C++: 基础语法——类和对象的申明
+      3. 背单词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.Matlab dll:修改高斯点数后，生成曲线变形,暂未找到原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加COS2 信号的Matlab dll调用    
+      3.无VS2010或Matlab 2012B的环境中测试程序的可执行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.32位程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.到天奥联调
+      6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合项目组成员验证算法：修改新的dll、中间层及上位机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合高斯、余弦功能；衰减控制联调
+      8.上位机增加烧写功能；ARM增加烧写FLASH功能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.熟悉STM32 FLASH写操作：如何对一个扇区多次操作，但不丢失以前的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    10.测试软件完善：
+        1) 3、4通道功能添加
+        2) 非常温下高斯、余弦波形调整</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉P4080的串口，FLASH，网口等接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉VxWorks6.9操作系统、uboot及驱动
+     3.熟悉VxWorks6.9应用开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6323:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉DSP开发流程
+      2.了解项目需求：需要调试的接口
+      3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找并解决SDRAM 高温数据出错问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,6 +2327,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2075,7 +2485,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2494,7 +2914,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -2507,7 +2927,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -2533,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2977,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2569,7 +2989,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162">
+    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2581,7 +3001,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2593,7 +3013,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +3025,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -2617,7 +3037,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -2629,12 +3049,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -2652,7 +3072,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -2665,7 +3085,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -2692,7 +3112,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2716,7 +3136,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2728,7 +3148,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +3160,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +3172,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2764,7 +3184,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2776,7 +3196,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2788,12 +3208,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -2813,7 +3233,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -2824,7 +3244,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +3271,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5">
+    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2877,7 +3297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +3309,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -2901,7 +3321,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2913,7 +3333,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -2925,7 +3345,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -2937,7 +3357,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -2949,17 +3369,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -2982,7 +3402,7 @@
       <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -2993,7 +3413,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3020,7 +3440,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3044,7 +3464,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3056,7 +3476,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3068,7 +3488,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3080,7 +3500,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3092,7 +3512,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3524,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3116,17 +3536,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3145,11 +3565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3160,7 +3580,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3187,7 +3607,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3201,7 +3621,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3213,7 +3633,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3225,7 +3645,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3237,7 +3657,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3249,7 +3669,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3261,7 +3681,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3273,22 +3693,22 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57">
+    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
@@ -3301,4 +3721,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
+    <col min="4" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1766,6 +1766,152 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉P4080的串口，FLASH，网口等接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉VxWorks6.9操作系统、uboot及驱动
+     3.熟悉VxWorks6.9应用开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6323:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉DSP开发流程
+      2.了解项目需求：需要调试的接口
+      3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找并解决SDRAM 高温数据出错问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.锁存器、触发器及寄存器
+2.39个单词
+3.Vxworks 下载型启动流程分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.春节自我总结
+2.公司总结大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1965,141 +2111,6 @@
       <t xml:space="preserve">    10.测试软件完善：
         1) 3、4通道功能添加
         2) 非常温下高斯、余弦波形调整</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉P4080的串口，FLASH，网口等接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉VxWorks6.9操作系统、uboot及驱动
-     3.熟悉VxWorks6.9应用开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GR6323:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉DSP开发流程
-      2.了解项目需求：需要调试的接口
-      3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查找并解决SDRAM 高温数据出错问题</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2108,7 +2119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2485,17 +2496,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2914,7 +2915,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -2927,7 +2928,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="81">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2977,7 +2978,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +2990,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="162">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3013,7 +3014,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3025,7 +3026,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -3037,7 +3038,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -3049,12 +3050,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3072,7 +3073,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -3085,7 +3086,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -3112,7 +3113,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3136,7 +3137,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="216">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3173,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3185,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3196,7 +3197,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -3208,12 +3209,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -3233,7 +3234,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -3244,7 +3245,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3271,7 +3272,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3309,7 +3310,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3321,7 +3322,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3333,7 +3334,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3369,17 +3370,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3402,7 +3403,7 @@
       <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3413,7 +3414,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +3441,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="99.75">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3464,7 +3465,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3476,7 +3477,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3524,7 +3525,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3536,17 +3537,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3569,7 +3570,7 @@
       <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3580,7 +3581,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3607,7 +3608,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="99.75">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3634,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3645,7 +3646,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3669,7 +3670,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3681,7 +3682,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3693,22 +3694,22 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="57">
       <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
@@ -3728,19 +3729,20 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
-    <col min="4" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3767,46 +3769,50 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="57">
       <c r="A2" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="71.25">
       <c r="A3" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="85.5">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="242.25">
       <c r="A6" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="42.75">
       <c r="A8" s="35" t="s">
         <v>57</v>
       </c>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2112,6 +2112,12 @@
         1) 3、4通道功能添加
         2) 非常温下高斯、余弦波形调整</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.43个单词
+2.移位寄存器
+3.process concept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3729,7 +3735,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3738,7 +3744,8 @@
     <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
@@ -3782,7 +3789,9 @@
       <c r="D2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="2016-1-25" sheetId="7" r:id="rId4"/>
     <sheet name="2016-2-1" sheetId="8" r:id="rId5"/>
     <sheet name="2016-2-15" sheetId="9" r:id="rId6"/>
+    <sheet name="2016-2-22" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2118,6 +2119,19 @@
     <t>1.43个单词
 2.移位寄存器
 3.process concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.I2C 设备驱动注册流程
+2.进程概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.34个英语单词
+2.I2C 读写时序分析
+3.I2C 设备驱动概念初步分析
+4.platform 设备驱动模型
+5.内存分页机制的频繁交换问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,7 +2516,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3394,7 +3428,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3561,7 +3595,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3723,7 +3757,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3734,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3829,7 +3863,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="114">
+      <c r="A2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25">
+      <c r="A3" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75">
+      <c r="A4" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="85.5">
+      <c r="A5" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="242.25">
+      <c r="A6" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57">
+      <c r="A7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75">
+      <c r="A8" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2132,6 +2132,11 @@
 3.I2C 设备驱动概念初步分析
 4.platform 设备驱动模型
 5.内存分页机制的频繁交换问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.33个单词
+2.进程及进程调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2516,17 +2521,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3428,7 +3423,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3595,7 +3590,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3757,7 +3752,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3863,7 +3858,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3878,7 +3873,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -3889,7 +3884,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3926,7 +3921,9 @@
       <c r="C2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
@@ -3965,7 +3962,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2137,6 +2137,23 @@
   <si>
     <t>1.33个单词
 2.进程及进程调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.I2C client &amp; i2c_board_info
+2.i2c_adapter register及其与i2c_client之间的关系
+3.34个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.i2c adapter 驱动添加流程梳理
+（主要是platform驱动添加过程分析）
+2.MNC功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3887,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3880,7 +3897,8 @@
     <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
-    <col min="6" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="38" customWidth="1"/>
+    <col min="7" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
@@ -3924,10 +3942,16 @@
       <c r="D2" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="E2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="H2" s="31" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="71.25">
       <c r="A3" s="30" t="s">

--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -14,13 +14,14 @@
     <sheet name="2016-2-1" sheetId="8" r:id="rId5"/>
     <sheet name="2016-2-15" sheetId="9" r:id="rId6"/>
     <sheet name="2016-2-22" sheetId="10" r:id="rId7"/>
+    <sheet name="2016-2-29" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2146,14 +2147,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">看房
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.i2c adapter 驱动添加流程梳理
 （主要是platform驱动添加过程分析）
-2.MNC功能实现</t>
+2.MNC码查询需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MNC码查询功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2538,7 +2543,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2967,7 +2992,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -2980,7 +3005,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -3006,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3030,7 +3055,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -3042,7 +3067,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162">
+    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -3054,7 +3079,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3066,7 +3091,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3078,7 +3103,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -3090,7 +3115,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -3102,12 +3127,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3125,7 +3150,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -3138,7 +3163,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -3165,7 +3190,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3189,7 +3214,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3201,7 +3226,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -3213,7 +3238,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3225,7 +3250,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3262,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3274,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -3261,12 +3286,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -3286,7 +3311,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -3297,7 +3322,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3324,7 +3349,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5">
+    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3362,7 +3387,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3399,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3386,7 +3411,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3423,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3435,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3422,17 +3447,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3440,7 +3465,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3455,7 +3480,7 @@
       <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3466,7 +3491,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3493,7 +3518,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3517,7 +3542,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3529,7 +3554,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3541,7 +3566,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3553,7 +3578,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3565,7 +3590,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3577,7 +3602,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3589,17 +3614,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3607,7 +3632,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3622,7 +3647,7 @@
       <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3633,7 +3658,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3660,7 +3685,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3674,7 +3699,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +3711,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3698,7 +3723,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3710,7 +3735,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +3747,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3734,7 +3759,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3746,22 +3771,22 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57">
+    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
@@ -3769,7 +3794,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3784,7 +3809,7 @@
       <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
@@ -3795,7 +3820,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3822,7 +3847,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -3842,32 +3867,32 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25">
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
@@ -3875,7 +3900,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3887,10 +3912,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -3898,11 +3923,12 @@
     <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="38" customWidth="1"/>
-    <col min="7" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3929,7 +3955,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="114">
+    <row r="2" spans="1:9" ht="114" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -3948,37 +3974,39 @@
       <c r="F2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="H2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25">
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
@@ -3986,9 +4014,108 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="38" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/周计划2016.xlsx
+++ b/周计划2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="2016-2-15" sheetId="9" r:id="rId6"/>
     <sheet name="2016-2-22" sheetId="10" r:id="rId7"/>
     <sheet name="2016-2-29" sheetId="11" r:id="rId8"/>
+    <sheet name="2016-3-1" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2161,12 +2162,277 @@
     <t>1.MNC码查询功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉P4080的串口，FLASH，网口等接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉VxWorks6.9操作系统、uboot及驱动
+     3.熟悉VxWorks6.9应用开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GR6407: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.大小端及网络字节序
+      2.有符号数和无符号及其移位操作
+      3.万兆光纤：UDP丢包
+      4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合ARM、FPGA解决上传Q数据不正确的问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6017:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1.测试软件完善：
+        1) 3、4通道功能添加
+        2) 非常温下高斯、余弦波形调整</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR505:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.上位机软件设计
+      2.当前项目进度的跟踪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6323:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.查找并解决SDRAM 高温数据出错问题
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR506:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.获取H.264网络视频串流 (win32 api或Vlclib api)
+      2.校时:win32下SNTP客户端实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 1. 《computer network a top-down》
+      2. 《operating system concept》
+      3. C++: 基础语法——类和对象的申明
+      4. 背单词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.近期OOC项目需求整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2395,7 +2661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2420,6 +2686,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2433,7 +2705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2539,11 +2811,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2992,7 +3280,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -3005,7 +3293,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -3031,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="81">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3343,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3355,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="162">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3367,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +3379,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +3391,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +3403,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -3127,12 +3415,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3150,7 +3438,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -3163,7 +3451,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -3190,7 +3478,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3214,7 +3502,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3226,7 +3514,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="216">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -3238,7 +3526,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3250,7 +3538,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3262,7 +3550,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3274,7 +3562,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -3286,12 +3574,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -3311,7 +3599,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -3322,7 +3610,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3349,7 +3637,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3375,7 +3663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3387,7 +3675,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3399,7 +3687,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3699,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3423,7 +3711,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3435,7 +3723,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3447,17 +3735,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3480,7 +3768,7 @@
       <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3491,7 +3779,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3806,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="99.75">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3542,7 +3830,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3554,7 +3842,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3566,7 +3854,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3578,7 +3866,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3590,7 +3878,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3602,7 +3890,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3614,17 +3902,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -3647,7 +3935,7 @@
       <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -3658,7 +3946,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3685,7 +3973,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="99.75">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -3699,7 +3987,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -3711,7 +3999,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="228">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -3723,7 +4011,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -3735,7 +4023,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -3747,7 +4035,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +4047,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -3771,22 +4059,22 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="42.75">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="57">
       <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
@@ -3809,7 +4097,7 @@
       <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
@@ -3820,7 +4108,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3847,7 +4135,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="57">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -3867,32 +4155,32 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="71.25">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="85.5">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="242.25">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="42.75">
       <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
@@ -3911,11 +4199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -3928,7 +4216,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3955,7 +4243,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="114" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="114">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -3981,32 +4269,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="71.25">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="85.5">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="242.25">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="42.75">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
@@ -4026,10 +4314,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -4042,7 +4330,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4069,44 +4357,44 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="57">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="85.5">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="242.25">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="42.75">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
@@ -4118,4 +4406,108 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="38" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="71.25">
+      <c r="A2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="71.25">
+      <c r="A4" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57">
+      <c r="A5" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.75">
+      <c r="A6" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75">
+      <c r="A7" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75">
+      <c r="A8" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25"/>
+    <row r="10" spans="1:9" ht="14.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A8 A1:H1 B2:H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>